--- a/Data/GEF Sampling/Litter Consolotaed ALL plots_2018.07.31.xlsx
+++ b/Data/GEF Sampling/Litter Consolotaed ALL plots_2018.07.31.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmanbolus/Documents/Cos  Projects/Current Projects/GEF Baviaanskoof_2017/Data/GEF Baseline data/Litter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\PhD GeoInformatics\Data\GEF Sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC7AA9-4081-9749-8573-F8603BCB6A79}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="32000" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="31995" windowHeight="16200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wet litter " sheetId="2" r:id="rId1"/>
     <sheet name="Dry litter" sheetId="1" r:id="rId2"/>
     <sheet name="Litter summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="173">
   <si>
     <t>Plot #</t>
   </si>
@@ -519,12 +518,39 @@
   </si>
   <si>
     <t>D: Wet mass of litter excl. tray (B-A) (g)</t>
+  </si>
+  <si>
+    <t>MV1</t>
+  </si>
+  <si>
+    <t>MV2</t>
+  </si>
+  <si>
+    <t>MV3</t>
+  </si>
+  <si>
+    <t>MV4</t>
+  </si>
+  <si>
+    <t>MV5</t>
+  </si>
+  <si>
+    <t>MV6</t>
+  </si>
+  <si>
+    <t>MV7</t>
+  </si>
+  <si>
+    <t>MV8</t>
+  </si>
+  <si>
+    <t>MV9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1057,20 +1083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1079,7 +1105,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1167,7 @@
         <v>337.61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1196,7 @@
         <v>108.32999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1231,7 @@
         <v>1304.58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1261,7 @@
         <v>114.03000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1291,7 @@
         <v>344.59000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1321,7 @@
         <v>182.02000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +1351,7 @@
         <v>733.20999999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1355,7 +1381,7 @@
         <v>211.70000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1411,7 @@
         <v>302.72000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1441,7 @@
         <v>963.80000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1471,7 @@
         <v>160.49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1501,7 @@
         <v>162.73000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1536,7 @@
         <v>2921.43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1531,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1587,7 @@
         <v>1105.52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1596,7 +1622,7 @@
         <v>2189.12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1623,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1654,7 +1680,7 @@
         <v>1572.45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1681,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1712,7 +1738,7 @@
         <v>181.37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1739,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1770,7 +1796,7 @@
         <v>981.8900000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +1827,7 @@
         <v>287.0100000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1828,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1859,7 +1885,7 @@
         <v>755.81999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1890,7 +1916,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1921,7 +1947,7 @@
         <v>576.97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1952,7 +1978,7 @@
         <v>373.08000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1979,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2031,7 +2057,7 @@
         <v>811.14999999999986</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -2054,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2077,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2106,7 +2132,7 @@
         <v>613.94000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2127,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
@@ -2152,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
@@ -2183,7 +2209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
@@ -2214,7 +2240,7 @@
         <v>134.01999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2245,7 +2271,7 @@
         <v>990.31</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
@@ -2272,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -2299,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -2330,7 +2356,7 @@
         <v>421.27</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -2361,7 +2387,7 @@
         <v>167.72000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2392,7 +2418,7 @@
         <v>136.19999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
@@ -2423,7 +2449,7 @@
         <v>199.98000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>101</v>
       </c>
@@ -2454,7 +2480,7 @@
         <v>262.40000000000009</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
@@ -2485,7 +2511,7 @@
         <v>47.200000000000045</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -2516,7 +2542,7 @@
         <v>140.33000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -2547,7 +2573,7 @@
         <v>122.61000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -2578,7 +2604,7 @@
         <v>1191.8800000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
@@ -2607,7 +2633,7 @@
         <v>100.73000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -2637,7 +2663,7 @@
         <v>74.290000000000077</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -2667,7 +2693,7 @@
         <v>165.93999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -2690,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -2719,7 +2745,7 @@
         <v>687.92</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2740,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>151</v>
       </c>
@@ -2775,7 +2801,7 @@
         <v>3190.61</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>152</v>
       </c>
@@ -2810,7 +2836,7 @@
         <v>2807.88</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -2845,7 +2871,7 @@
         <v>3076.12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2875,7 +2901,7 @@
         <v>1374.25</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
@@ -2900,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>156</v>
       </c>
@@ -2935,7 +2961,7 @@
         <v>2610.61</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>157</v>
       </c>
@@ -2965,7 +2991,7 @@
         <v>1173.72</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>158</v>
       </c>
@@ -3000,7 +3026,7 @@
         <v>1848.45</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>159</v>
       </c>
@@ -3035,7 +3061,7 @@
         <v>2354.9499999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -3058,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -3083,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
@@ -3118,7 +3144,7 @@
         <v>3361.92</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -3153,7 +3179,7 @@
         <v>3032.43</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>144</v>
       </c>
@@ -3176,7 +3202,7 @@
         <v>1867.9899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -3211,7 +3237,7 @@
         <v>2860.69</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3246,7 +3272,7 @@
         <v>3079.9700000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -3281,7 +3307,7 @@
         <v>2334.16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
@@ -3311,7 +3337,7 @@
         <v>1755.1099999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -3332,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -3367,7 +3393,7 @@
         <v>2540.6899999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3385,7 +3411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3393,12 +3419,12 @@
       <selection pane="bottomLeft" activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="15"/>
+    <col min="1" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3413,7 +3439,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3484,7 @@
       </c>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -3508,7 +3534,7 @@
         <v>325.99</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3558,7 +3584,7 @@
         <v>106.82</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3604,7 +3630,7 @@
         <v>498.96</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3676,7 @@
         <v>405.59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3700,7 +3726,7 @@
         <v>1256.6199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -3750,7 +3776,7 @@
         <v>113.66000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3800,7 +3826,7 @@
         <v>332.25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -3850,7 +3876,7 @@
         <v>178.94</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3900,7 +3926,7 @@
         <v>652.69000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3950,7 +3976,7 @@
         <v>202.42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -4000,7 +4026,7 @@
         <v>299.43</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -4046,7 +4072,7 @@
         <v>506.06000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -4096,7 +4122,7 @@
         <v>942.41000000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -4146,7 +4172,7 @@
         <v>156.94</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -4196,7 +4222,7 @@
         <v>160.53</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -4242,7 +4268,7 @@
         <v>683.80000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
@@ -4288,7 +4314,7 @@
         <v>721.19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>24</v>
       </c>
@@ -4334,7 +4360,7 @@
         <v>736.82</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -4384,7 +4410,7 @@
         <v>2794.9700000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
@@ -4430,7 +4456,7 @@
         <v>484.60999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>64</v>
       </c>
@@ -4480,7 +4506,7 @@
         <v>983.6099999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -4526,7 +4552,7 @@
         <v>481.35</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>65</v>
       </c>
@@ -4572,7 +4598,7 @@
         <v>394.02</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>65</v>
       </c>
@@ -4618,7 +4644,7 @@
         <v>368.19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>65</v>
       </c>
@@ -4664,7 +4690,7 @@
         <v>394.59999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>65</v>
       </c>
@@ -4714,7 +4740,7 @@
         <v>1990.9199999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -4750,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
@@ -4796,7 +4822,7 @@
         <v>479.95</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>72</v>
       </c>
@@ -4842,7 +4868,7 @@
         <v>473.46000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>72</v>
       </c>
@@ -4892,7 +4918,7 @@
         <v>1443.0300000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>73</v>
       </c>
@@ -4928,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>74</v>
       </c>
@@ -4978,7 +5004,7 @@
         <v>169.63</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
@@ -5014,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>76</v>
       </c>
@@ -5060,7 +5086,7 @@
         <v>488.37</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>76</v>
       </c>
@@ -5110,7 +5136,7 @@
         <v>955.19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>77</v>
       </c>
@@ -5160,7 +5186,7 @@
         <v>261.39</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>78</v>
       </c>
@@ -5196,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>79</v>
       </c>
@@ -5242,7 +5268,7 @@
         <v>385.29</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>79</v>
       </c>
@@ -5292,7 +5318,7 @@
         <v>713.02</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
@@ -5342,7 +5368,7 @@
         <v>49.269999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>81</v>
       </c>
@@ -5392,7 +5418,7 @@
         <v>533.86</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>82</v>
       </c>
@@ -5442,7 +5468,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>83</v>
       </c>
@@ -5478,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>84</v>
       </c>
@@ -5514,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>85</v>
       </c>
@@ -5560,7 +5586,7 @@
         <v>426.18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>85</v>
       </c>
@@ -5610,7 +5636,7 @@
         <v>764.06999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>86</v>
       </c>
@@ -5646,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>87</v>
       </c>
@@ -5682,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>88</v>
       </c>
@@ -5732,7 +5758,7 @@
         <v>563.94000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>89</v>
       </c>
@@ -5768,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>90</v>
       </c>
@@ -5804,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>111</v>
       </c>
@@ -5840,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>112</v>
       </c>
@@ -5890,7 +5916,7 @@
         <v>223.44</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>113</v>
       </c>
@@ -5940,7 +5966,7 @@
         <v>127.82000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
@@ -5987,7 +6013,7 @@
       </c>
       <c r="N57" s="33"/>
     </row>
-    <row r="58" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>114</v>
       </c>
@@ -6033,7 +6059,7 @@
         <v>875.74</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>115</v>
       </c>
@@ -6070,7 +6096,7 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>116</v>
       </c>
@@ -6107,7 +6133,7 @@
       </c>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>117</v>
       </c>
@@ -6157,7 +6183,7 @@
         <v>401.92</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>118</v>
       </c>
@@ -6207,7 +6233,7 @@
         <v>158.26</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>119</v>
       </c>
@@ -6257,7 +6283,7 @@
         <v>129.05000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>120</v>
       </c>
@@ -6307,7 +6333,7 @@
         <v>188.81</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>121</v>
       </c>
@@ -6357,7 +6383,7 @@
         <v>254.32</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
@@ -6407,7 +6433,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
@@ -6457,7 +6483,7 @@
         <v>131.04000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>124</v>
       </c>
@@ -6507,7 +6533,7 @@
         <v>118.19000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>125</v>
       </c>
@@ -6554,7 +6580,7 @@
       </c>
       <c r="N69" s="33"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>125</v>
       </c>
@@ -6600,7 +6626,7 @@
         <v>1128.9299999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>126</v>
       </c>
@@ -6650,7 +6676,7 @@
         <v>94.32</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>127</v>
       </c>
@@ -6700,7 +6726,7 @@
         <v>71.38</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>128</v>
       </c>
@@ -6750,7 +6776,7 @@
         <v>160.97</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>129</v>
       </c>
@@ -6787,7 +6813,7 @@
       </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>130</v>
       </c>
@@ -6837,7 +6863,7 @@
         <v>632.65</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>131</v>
       </c>
@@ -6883,7 +6909,7 @@
         <v>448.93</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>131</v>
       </c>
@@ -6929,7 +6955,7 @@
         <v>412.04999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>131</v>
       </c>
@@ -6975,7 +7001,7 @@
         <v>500.26000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>131</v>
       </c>
@@ -7021,7 +7047,7 @@
         <v>700.05</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>131</v>
       </c>
@@ -7071,7 +7097,7 @@
         <v>2740.66</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>132</v>
       </c>
@@ -7117,7 +7143,7 @@
         <v>616.79</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>132</v>
       </c>
@@ -7163,7 +7189,7 @@
         <v>571.57999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>132</v>
       </c>
@@ -7209,7 +7235,7 @@
         <v>710.16</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>132</v>
       </c>
@@ -7259,7 +7285,7 @@
         <v>2577.9399999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>133</v>
       </c>
@@ -7305,7 +7331,7 @@
         <v>551.20000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>133</v>
       </c>
@@ -7351,7 +7377,7 @@
         <v>515.09</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>133</v>
       </c>
@@ -7397,7 +7423,7 @@
         <v>477.59000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>133</v>
       </c>
@@ -7443,7 +7469,7 @@
         <v>782.81000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>133</v>
       </c>
@@ -7493,7 +7519,7 @@
         <v>2860.53</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>134</v>
       </c>
@@ -7539,7 +7565,7 @@
         <v>391.18</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>134</v>
       </c>
@@ -7585,7 +7611,7 @@
         <v>434.52</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>134</v>
       </c>
@@ -7635,7 +7661,7 @@
         <v>1301.24</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>135</v>
       </c>
@@ -7672,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>136</v>
       </c>
@@ -7718,7 +7744,7 @@
         <v>638.87</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>136</v>
       </c>
@@ -7764,7 +7790,7 @@
         <v>599.61</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>136</v>
       </c>
@@ -7810,7 +7836,7 @@
         <v>628.88</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>136</v>
       </c>
@@ -7860,7 +7886,7 @@
         <v>2457.0600000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>137</v>
       </c>
@@ -7906,7 +7932,7 @@
         <v>495.42</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>137</v>
       </c>
@@ -7956,7 +7982,7 @@
         <v>1102.5</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>138</v>
       </c>
@@ -8002,7 +8028,7 @@
         <v>635.13</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>138</v>
       </c>
@@ -8048,7 +8074,7 @@
         <v>555.41</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>138</v>
       </c>
@@ -8098,7 +8124,7 @@
         <v>1707.67</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>139</v>
       </c>
@@ -8144,7 +8170,7 @@
         <v>496.41</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>139</v>
       </c>
@@ -8190,7 +8216,7 @@
         <v>520.54</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>139</v>
       </c>
@@ -8236,7 +8262,7 @@
         <v>611.06999999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>139</v>
       </c>
@@ -8286,7 +8312,7 @@
         <v>2215.0500000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>140</v>
       </c>
@@ -8323,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>141</v>
       </c>
@@ -8360,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>142</v>
       </c>
@@ -8406,7 +8432,7 @@
         <v>755.3599999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>142</v>
       </c>
@@ -8452,7 +8478,7 @@
         <v>545.07999999999993</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>142</v>
       </c>
@@ -8498,7 +8524,7 @@
         <v>560.43999999999994</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>142</v>
       </c>
@@ -8544,7 +8570,7 @@
         <v>504.77</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>142</v>
       </c>
@@ -8594,7 +8620,7 @@
         <v>3016.7499999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>143</v>
       </c>
@@ -8640,7 +8666,7 @@
         <v>780.8900000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>143</v>
       </c>
@@ -8686,7 +8712,7 @@
         <v>634.84</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -8732,7 +8758,7 @@
         <v>666.31</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>143</v>
       </c>
@@ -8782,7 +8808,7 @@
         <v>2794.8999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>144</v>
       </c>
@@ -8819,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>145</v>
       </c>
@@ -8865,7 +8891,7 @@
         <v>719.26</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>145</v>
       </c>
@@ -8911,7 +8937,7 @@
         <v>627.79000000000008</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>145</v>
       </c>
@@ -8957,7 +8983,7 @@
         <v>630.94000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>145</v>
       </c>
@@ -9007,7 +9033,7 @@
         <v>2620.0600000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>146</v>
       </c>
@@ -9053,7 +9079,7 @@
         <v>769.82</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>146</v>
       </c>
@@ -9099,7 +9125,7 @@
         <v>738.9799999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>146</v>
       </c>
@@ -9145,7 +9171,7 @@
         <v>664.93000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>146</v>
       </c>
@@ -9195,7 +9221,7 @@
         <v>2811.39</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>147</v>
       </c>
@@ -9241,7 +9267,7 @@
         <v>733.62</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>147</v>
       </c>
@@ -9287,7 +9313,7 @@
         <v>773.35</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>147</v>
       </c>
@@ -9337,7 +9363,7 @@
         <v>2238.42</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>148</v>
       </c>
@@ -9383,7 +9409,7 @@
         <v>608.29999999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -9429,7 +9455,7 @@
         <v>504.25000000000006</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>148</v>
       </c>
@@ -9479,7 +9505,7 @@
         <v>1550.13</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>149</v>
       </c>
@@ -9516,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>150</v>
       </c>
@@ -9562,7 +9588,7 @@
         <v>596.31999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>150</v>
       </c>
@@ -9608,7 +9634,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>150</v>
       </c>
@@ -9654,7 +9680,7 @@
         <v>528.73</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>150</v>
       </c>
@@ -9710,17 +9736,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE20D94-3975-C441-A209-86C76E4923C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="62" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9734,7 +9760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -9751,7 +9777,7 @@
         <v>3.4418411776902358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -9768,7 +9794,7 @@
         <v>1.3938890427397684E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -9785,7 +9811,7 @@
         <v>3.6762789556792255E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -9802,7 +9828,7 @@
         <v>3.2447601508376624E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -9819,7 +9845,7 @@
         <v>3.5810673554078847E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -9836,7 +9862,7 @@
         <v>1.6921217448632241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -9853,7 +9879,7 @@
         <v>0.10981846946986522</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -9870,7 +9896,7 @@
         <v>4.3835616438356428E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -9887,7 +9913,7 @@
         <v>1.0868128964059262E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -9904,7 +9930,7 @@
         <v>2.2193401120564418E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -9921,7 +9947,7 @@
         <v>2.2119758240388879E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -9938,7 +9964,7 @@
         <v>1.3519326491734878E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -9955,7 +9981,7 @@
         <v>4.3287020397544895E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15">
         <f>'Wet litter '!J16</f>
@@ -9963,9 +9989,9 @@
       </c>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B16">
         <f>'Wet litter '!J17</f>
@@ -9980,9 +10006,9 @@
         <v>0.11027389825602439</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <f>'Wet litter '!J18</f>
@@ -9997,9 +10023,9 @@
         <v>9.0538663938020777E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="B18">
         <f>'Wet litter '!J19</f>
@@ -10007,9 +10033,9 @@
       </c>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B19">
         <f>'Wet litter '!J20</f>
@@ -10024,9 +10050,9 @@
         <v>8.2304683773728793E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B20">
         <f>'Wet litter '!J21</f>
@@ -10034,9 +10060,9 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B21">
         <f>'Wet litter '!J22</f>
@@ -10051,9 +10077,9 @@
         <v>6.4729558361360809E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <f>'Wet litter '!J23</f>
@@ -10061,9 +10087,9 @@
       </c>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="B23">
         <f>'Wet litter '!J24</f>
@@ -10078,9 +10104,9 @@
         <v>2.7192455366690814E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="B24">
         <f>'Wet litter '!J25</f>
@@ -10095,7 +10121,7 @@
         <v>8.9265182397826243E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -10105,7 +10131,7 @@
       </c>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -10122,7 +10148,7 @@
         <v>5.6627239289777934E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -10139,7 +10165,7 @@
         <v>0.12796460176991156</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -10156,7 +10182,7 @@
         <v>7.4717922942267381E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -10173,7 +10199,7 @@
         <v>0.1121207247775277</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -10183,7 +10209,7 @@
       </c>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -10193,7 +10219,7 @@
       </c>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -10210,7 +10236,7 @@
         <v>5.8041052826234278E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -10220,7 +10246,7 @@
       </c>
       <c r="D33" s="21"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -10230,7 +10256,7 @@
       </c>
       <c r="D34" s="21"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -10247,7 +10273,7 @@
         <v>8.1441183177509202E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36">
         <f>'Wet litter '!J37</f>
@@ -10255,7 +10281,7 @@
       </c>
       <c r="D36" s="21"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -10265,7 +10291,7 @@
       </c>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
@@ -10282,7 +10308,7 @@
         <v>5.3220338983050855E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -10299,7 +10325,7 @@
         <v>4.6261751977316634E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -10316,7 +10342,7 @@
         <v>0.11569104623804662</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
@@ -10326,7 +10352,7 @@
       </c>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
@@ -10336,7 +10362,7 @@
       </c>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
@@ -10353,7 +10379,7 @@
         <v>4.5932537327604543E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
@@ -10370,7 +10396,7 @@
         <v>5.6403529692344592E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -10387,7 +10413,7 @@
         <v>5.2496328928046433E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -10404,7 +10430,7 @@
         <v>5.585558555855593E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -10421,7 +10447,7 @@
         <v>3.0792682926829629E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -10438,7 +10464,7 @@
         <v>4.0254237288136575E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
@@ -10455,7 +10481,7 @@
         <v>6.6201097413240345E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
@@ -10472,7 +10498,7 @@
         <v>3.6049261887284897E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -10489,7 +10515,7 @@
         <v>5.2815719703326061E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -10506,7 +10532,7 @@
         <v>6.363546113372405E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -10523,7 +10549,7 @@
         <v>3.9170817068247127E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -10540,7 +10566,7 @@
         <v>2.9950584548631698E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -10550,7 +10576,7 @@
       </c>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -10567,7 +10593,7 @@
         <v>8.0343644609838338E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57">
         <f>'Wet litter '!J58</f>
@@ -10575,7 +10601,7 @@
       </c>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>151</v>
       </c>
@@ -10592,7 +10618,7 @@
         <v>0.14102318992293017</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>152</v>
       </c>
@@ -10609,7 +10635,7 @@
         <v>8.1890964001310781E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -10626,7 +10652,7 @@
         <v>7.0085042196013067E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>154</v>
       </c>
@@ -10643,7 +10669,7 @@
         <v>5.3127160269237757E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
@@ -10653,7 +10679,7 @@
       </c>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
@@ -10670,7 +10696,7 @@
         <v>5.8817670965789499E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>157</v>
       </c>
@@ -10687,7 +10713,7 @@
         <v>6.0678867191493735E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>158</v>
       </c>
@@ -10704,7 +10730,7 @@
         <v>7.6161107955313889E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
@@ -10721,7 +10747,7 @@
         <v>5.9406781460328094E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
@@ -10731,7 +10757,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>141</v>
       </c>
@@ -10741,7 +10767,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -10758,7 +10784,7 @@
         <v>0.10267049781077495</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -10775,13 +10801,13 @@
         <v>7.8329920228991337E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -10798,7 +10824,7 @@
         <v>8.4116069899219992E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
@@ -10815,7 +10841,7 @@
         <v>8.7202148072870952E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -10832,7 +10858,7 @@
         <v>4.1016896870822821E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -10849,7 +10875,7 @@
         <v>0.11679040060167147</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -10859,7 +10885,7 @@
       </c>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
@@ -10876,7 +10902,7 @@
         <v>8.9672490543907343E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78">
         <f>'Wet litter '!J79</f>

--- a/Data/GEF Sampling/Litter Consolotaed ALL plots_2018.07.31.xlsx
+++ b/Data/GEF Sampling/Litter Consolotaed ALL plots_2018.07.31.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="179">
   <si>
     <t>Plot #</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>MV9</t>
+  </si>
+  <si>
+    <t>TCH-01</t>
+  </si>
+  <si>
+    <t>TCH-03</t>
+  </si>
+  <si>
+    <t>INT-01</t>
+  </si>
+  <si>
+    <t>INT-03</t>
+  </si>
+  <si>
+    <t>INT-07</t>
+  </si>
+  <si>
+    <t>from Tch_INT_Dry_Litter_2018.08.06_Cos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -733,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -804,12 +822,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -829,7 +916,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="B9B9B9"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9737,11 +9824,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10713,7 +10800,7 @@
         <v>6.0678867191493735E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>158</v>
       </c>
@@ -10730,7 +10817,7 @@
         <v>7.6161107955313889E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
@@ -10747,7 +10834,7 @@
         <v>5.9406781460328094E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
@@ -10757,7 +10844,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>141</v>
       </c>
@@ -10767,7 +10854,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -10784,7 +10871,7 @@
         <v>0.10267049781077495</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -10801,13 +10888,13 @@
         <v>7.8329920228991337E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -10824,7 +10911,7 @@
         <v>8.4116069899219992E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
@@ -10841,7 +10928,7 @@
         <v>8.7202148072870952E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -10858,7 +10945,7 @@
         <v>4.1016896870822821E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -10875,7 +10962,7 @@
         <v>0.11679040060167147</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -10885,7 +10972,7 @@
       </c>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
@@ -10902,11 +10989,54 @@
         <v>8.9672490543907343E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78">
         <f>'Wet litter '!J79</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79">
+        <v>58.81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80">
+        <v>110.56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81">
+        <v>2768.91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82">
+        <v>2589.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83">
+        <v>3611.96</v>
       </c>
     </row>
   </sheetData>
